--- a/wykres gantta.xlsx
+++ b/wykres gantta.xlsx
@@ -136,6 +136,26 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Plan</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> pracy</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
@@ -605,11 +625,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="300"/>
-        <c:axId val="123495936"/>
-        <c:axId val="123277824"/>
+        <c:axId val="47665664"/>
+        <c:axId val="42884416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="123495936"/>
+        <c:axId val="47665664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -619,7 +639,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123277824"/>
+        <c:crossAx val="42884416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -627,7 +647,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123277824"/>
+        <c:axId val="42884416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -638,13 +658,17 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123495936"/>
+        <c:crossAx val="47665664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
@@ -669,6 +693,541 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Plan</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> pracy</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kamienie milowe</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Arkusz1!$C$1:$D$1,Arkusz1!$E$2)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sterowanie klawiaturą</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cztery różne plansze, które można przełączać w grze</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Generowanie labiryntu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sterowanie postacią</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Zliczanie wyniku</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Zapisywanie wyniku za pomocą local storage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Grafika</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Przedmioty wpływające na grę</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kody/znajdźki</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Generowanie się struktur </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="300"/>
+        <c:axId val="86889472"/>
+        <c:axId val="134559936"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="86889472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="134559936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="134559936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="86889472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.6435553368328959"/>
+          <c:y val="0.10180555555555555"/>
+          <c:w val="0.32658761457873792"/>
+          <c:h val="0.75888936807468055"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -676,13 +1235,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9522</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -696,6 +1255,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1314450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4533900</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38097</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Wykres 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -993,8 +1584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1116,6 +1707,9 @@
         <f t="shared" si="0"/>
         <v>195</v>
       </c>
+      <c r="E6">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1131,6 +1725,9 @@
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1146,6 +1743,9 @@
         <f t="shared" si="0"/>
         <v>285</v>
       </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1161,6 +1761,9 @@
         <f t="shared" si="0"/>
         <v>305</v>
       </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
       <c r="F9" t="s">
         <v>15</v>
       </c>
@@ -1179,6 +1782,9 @@
         <f t="shared" si="0"/>
         <v>330</v>
       </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
       <c r="F10" t="s">
         <v>15</v>
       </c>
@@ -1196,6 +1802,9 @@
       <c r="D11">
         <f t="shared" si="0"/>
         <v>375</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>

--- a/wykres gantta.xlsx
+++ b/wykres gantta.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Kamienie milowe</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Łączny czas pracy</t>
+  </si>
+  <si>
+    <t>Duże problemy z poprawieniem błędów w poruszaniu się. Więcej w post mortem</t>
   </si>
 </sst>
 </file>
@@ -625,11 +628,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="300"/>
-        <c:axId val="47665664"/>
-        <c:axId val="42884416"/>
+        <c:axId val="43733504"/>
+        <c:axId val="43867456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="47665664"/>
+        <c:axId val="43733504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -639,7 +642,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42884416"/>
+        <c:crossAx val="43867456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -647,7 +650,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42884416"/>
+        <c:axId val="43867456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -658,7 +661,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47665664"/>
+        <c:crossAx val="43733504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -923,7 +926,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1160,11 +1163,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="300"/>
-        <c:axId val="86889472"/>
-        <c:axId val="134559936"/>
+        <c:axId val="43735552"/>
+        <c:axId val="54446912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="86889472"/>
+        <c:axId val="43735552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1174,7 +1177,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134559936"/>
+        <c:crossAx val="54446912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1182,7 +1185,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134559936"/>
+        <c:axId val="54446912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1193,7 +1196,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86889472"/>
+        <c:crossAx val="43735552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1584,8 +1587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1690,7 +1693,10 @@
         <v>165</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>90</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
